--- a/storage/app/iprs/3/iprs.xlsx
+++ b/storage/app/iprs/3/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CE878-1353-4C1F-BD96-55019B828AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B625129-9660-4657-9D9E-5975BAFA0AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -379,11 +379,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -420,6 +440,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,13 +665,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -655,7 +681,7 @@
     <col min="7" max="9" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:32" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -705,22 +731,55 @@
         <v>26</v>
       </c>
       <c r="Q1" s="2">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2">
         <v>30</v>
       </c>
-      <c r="R1" s="2">
+      <c r="U1" s="2">
         <v>31</v>
       </c>
-      <c r="S1" s="2">
+      <c r="V1" s="2">
         <v>32</v>
       </c>
-      <c r="T1" s="2">
+      <c r="W1" s="2">
         <v>33</v>
       </c>
-      <c r="U1" s="7">
+      <c r="X1" s="7">
         <v>34</v>
       </c>
+      <c r="Y1" s="13">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="13">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="13">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="13">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="13">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="13">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="13">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -770,22 +829,55 @@
         <v>5</v>
       </c>
       <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <v>108</v>
       </c>
-      <c r="R2" s="3">
+      <c r="U2" s="3">
         <v>39</v>
       </c>
-      <c r="S2" s="3">
+      <c r="V2" s="3">
         <v>2</v>
       </c>
-      <c r="T2" s="3">
+      <c r="W2" s="3">
         <v>5</v>
       </c>
-      <c r="U2" s="8">
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -835,22 +927,55 @@
         <v>5</v>
       </c>
       <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
         <v>109</v>
       </c>
-      <c r="R3" s="3">
+      <c r="U3" s="3">
         <v>68</v>
       </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
         <v>6</v>
       </c>
-      <c r="U3" s="8">
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -899,23 +1024,56 @@
       <c r="P4" s="3">
         <v>5</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
         <v>107</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <v>68</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="3">
         <v>4</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -964,23 +1122,56 @@
       <c r="P5" s="3">
         <v>5</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
         <v>109</v>
       </c>
-      <c r="R5" s="3">
+      <c r="U5" s="3">
         <v>34</v>
       </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1030,22 +1221,55 @@
         <v>5</v>
       </c>
       <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <v>106</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <v>68</v>
       </c>
-      <c r="S6" s="3">
+      <c r="V6" s="3">
         <v>2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="W6" s="3">
         <v>1</v>
       </c>
-      <c r="U6" s="8">
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1095,22 +1319,55 @@
         <v>6</v>
       </c>
       <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <v>108</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <v>65</v>
       </c>
-      <c r="S7" s="3">
+      <c r="V7" s="3">
         <v>3</v>
       </c>
-      <c r="T7" s="3">
+      <c r="W7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1160,22 +1417,55 @@
         <v>6</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>108</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>39</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>2</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>1</v>
       </c>
-      <c r="U8" s="8">
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1225,22 +1515,55 @@
         <v>6</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>108</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>39</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>3</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1290,22 +1613,55 @@
         <v>6</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>115</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>40</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -1355,22 +1711,55 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="3">
+      <c r="U11" s="3">
         <v>3</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1420,22 +1809,55 @@
         <v>6</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>106</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>72</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="3">
         <v>3</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="8">
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -1485,22 +1907,55 @@
         <v>2</v>
       </c>
       <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
         <v>12</v>
       </c>
-      <c r="R13" s="3">
+      <c r="U13" s="3">
         <v>5</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1550,22 +2005,55 @@
         <v>6</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>108</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>39</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1615,22 +2103,55 @@
         <v>6</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>132</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>37</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>2</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="3">
         <v>1</v>
       </c>
-      <c r="U15" s="8">
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -1680,22 +2201,55 @@
         <v>6</v>
       </c>
       <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
         <v>108</v>
       </c>
-      <c r="R16" s="3">
+      <c r="U16" s="3">
         <v>39</v>
       </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="8">
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -1745,22 +2299,55 @@
         <v>6</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>108</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>37</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>2</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1810,22 +2397,55 @@
         <v>5</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>162</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>53</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>2</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>5</v>
       </c>
-      <c r="U18" s="8">
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1875,22 +2495,55 @@
         <v>6</v>
       </c>
       <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
         <v>108</v>
       </c>
-      <c r="R19" s="3">
+      <c r="U19" s="3">
         <v>37</v>
       </c>
-      <c r="S19" s="3">
+      <c r="V19" s="3">
         <v>3</v>
       </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8">
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1940,22 +2593,55 @@
         <v>1</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>12</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -2016,11 +2702,44 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -2070,22 +2789,55 @@
         <v>6</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>108</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>39</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="8">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
@@ -2135,22 +2887,55 @@
         <v>1</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>10</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>5</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
@@ -2200,22 +2985,55 @@
         <v>5</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>106</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>39</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>1</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="8">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2276,11 +3094,44 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
@@ -2330,22 +3181,55 @@
         <v>5</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>106</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>39</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>2</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>1</v>
       </c>
-      <c r="U26" s="8">
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -2395,22 +3279,55 @@
         <v>1</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>10</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>5</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="8">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
@@ -2460,22 +3377,55 @@
         <v>5</v>
       </c>
       <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
         <v>106</v>
       </c>
-      <c r="R28" s="3">
+      <c r="U28" s="3">
         <v>39</v>
       </c>
-      <c r="S28" s="3">
+      <c r="V28" s="3">
         <v>2</v>
       </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="8">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
@@ -2536,11 +3486,44 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -2590,22 +3573,55 @@
         <v>5</v>
       </c>
       <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
         <v>106</v>
       </c>
-      <c r="R30" s="3">
+      <c r="U30" s="3">
         <v>39</v>
       </c>
-      <c r="S30" s="3">
+      <c r="V30" s="3">
         <v>1</v>
       </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
@@ -2655,22 +3671,55 @@
         <v>5</v>
       </c>
       <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
         <v>106</v>
       </c>
-      <c r="R31" s="3">
+      <c r="U31" s="3">
         <v>39</v>
       </c>
-      <c r="S31" s="3">
+      <c r="V31" s="3">
         <v>1</v>
       </c>
-      <c r="T31" s="3">
-        <v>0</v>
-      </c>
-      <c r="U31" s="8">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
@@ -2720,22 +3769,55 @@
         <v>6</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>106</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>39</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
@@ -2785,22 +3867,55 @@
         <v>6</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>106</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>39</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
@@ -2850,22 +3965,55 @@
         <v>6</v>
       </c>
       <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
         <v>104</v>
       </c>
-      <c r="R34" s="3">
+      <c r="U34" s="3">
         <v>39</v>
       </c>
-      <c r="S34" s="3">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
@@ -2915,22 +4063,55 @@
         <v>6</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>106</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>39</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="8">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -2980,22 +4161,55 @@
         <v>6</v>
       </c>
       <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
         <v>106</v>
       </c>
-      <c r="R36" s="3">
+      <c r="U36" s="3">
         <v>39</v>
       </c>
-      <c r="S36" s="3">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -3045,22 +4259,55 @@
         <v>6</v>
       </c>
       <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
         <v>104</v>
       </c>
-      <c r="R37" s="3">
+      <c r="U37" s="3">
         <v>39</v>
       </c>
-      <c r="S37" s="3">
+      <c r="V37" s="3">
         <v>1</v>
       </c>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="8">
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
@@ -3121,11 +4368,44 @@
       <c r="T38" s="3">
         <v>0</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
@@ -3175,22 +4455,55 @@
         <v>2</v>
       </c>
       <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
         <v>10</v>
       </c>
-      <c r="R39" s="3">
+      <c r="U39" s="3">
         <v>5</v>
       </c>
-      <c r="S39" s="3">
-        <v>0</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0</v>
-      </c>
-      <c r="U39" s="8">
+      <c r="V39" s="3">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
@@ -3240,22 +4553,55 @@
         <v>2</v>
       </c>
       <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
         <v>10</v>
       </c>
-      <c r="R40" s="3">
+      <c r="U40" s="3">
         <v>5</v>
       </c>
-      <c r="S40" s="3">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="8">
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
@@ -3305,22 +4651,55 @@
         <v>6</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>104</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>39</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>41</v>
       </c>
@@ -3370,22 +4749,55 @@
         <v>2</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>10</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
@@ -3435,22 +4847,55 @@
         <v>6</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>104</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>45</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="44" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
@@ -3500,22 +4945,55 @@
         <v>6</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>104</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>39</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>1</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="45" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -3565,22 +5043,55 @@
         <v>6</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>104</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>39</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>1</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="46" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
@@ -3629,23 +5140,56 @@
       <c r="P46" s="3">
         <v>6</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
         <v>104</v>
       </c>
-      <c r="R46" s="5">
+      <c r="U46" s="5">
         <v>39</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="47" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="9" t="s">
         <v>46</v>
       </c>
@@ -3695,22 +5239,55 @@
         <v>6</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>104</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>39</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="48" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>47</v>
       </c>
@@ -3760,22 +5337,55 @@
         <v>6</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>104</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>50</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>1</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="49" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A49" s="9" t="s">
         <v>48</v>
       </c>
@@ -3825,22 +5435,55 @@
         <v>6</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>104</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>50</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>1</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="50" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -3890,35 +5533,68 @@
         <v>0</v>
       </c>
       <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
         <v>104</v>
       </c>
-      <c r="R50" s="3">
+      <c r="U50" s="3">
         <v>45</v>
       </c>
-      <c r="S50" s="3">
-        <v>0</v>
-      </c>
-      <c r="T50" s="3">
-        <v>0</v>
-      </c>
-      <c r="U50" s="3">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1" thickTop="1"/>
-    <row r="52" spans="1:21" ht="12" customHeight="1"/>
-    <row r="53" spans="1:21" ht="12" customHeight="1"/>
-    <row r="54" spans="1:21" ht="12" customHeight="1"/>
-    <row r="55" spans="1:21" ht="12" customHeight="1"/>
-    <row r="56" spans="1:21" ht="12" customHeight="1"/>
-    <row r="57" spans="1:21" ht="12" customHeight="1"/>
-    <row r="58" spans="1:21" ht="12" customHeight="1"/>
-    <row r="59" spans="1:21" ht="12" customHeight="1"/>
-    <row r="60" spans="1:21" ht="12" customHeight="1"/>
-    <row r="61" spans="1:21" ht="12" customHeight="1"/>
-    <row r="62" spans="1:21" ht="12" customHeight="1"/>
-    <row r="63" spans="1:21" ht="12" customHeight="1"/>
-    <row r="64" spans="1:21" ht="12" customHeight="1"/>
+    <row r="51" spans="1:32" ht="12" customHeight="1" thickTop="1"/>
+    <row r="52" spans="1:32" ht="12" customHeight="1"/>
+    <row r="53" spans="1:32" ht="12" customHeight="1"/>
+    <row r="54" spans="1:32" ht="12" customHeight="1"/>
+    <row r="55" spans="1:32" ht="12" customHeight="1"/>
+    <row r="56" spans="1:32" ht="12" customHeight="1"/>
+    <row r="57" spans="1:32" ht="12" customHeight="1"/>
+    <row r="58" spans="1:32" ht="12" customHeight="1"/>
+    <row r="59" spans="1:32" ht="12" customHeight="1"/>
+    <row r="60" spans="1:32" ht="12" customHeight="1"/>
+    <row r="61" spans="1:32" ht="12" customHeight="1"/>
+    <row r="62" spans="1:32" ht="12" customHeight="1"/>
+    <row r="63" spans="1:32" ht="12" customHeight="1"/>
+    <row r="64" spans="1:32" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
     <row r="67" ht="12" customHeight="1"/>

--- a/storage/app/iprs/3/iprs.xlsx
+++ b/storage/app/iprs/3/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B625129-9660-4657-9D9E-5975BAFA0AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65A6EB-EA8A-49B3-8BEF-51C432F2432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -176,12 +176,60 @@
   <si>
     <t>M3-G051</t>
   </si>
+  <si>
+    <t>M3-G034</t>
+  </si>
+  <si>
+    <t>M3-G019</t>
+  </si>
+  <si>
+    <t>M3-G052</t>
+  </si>
+  <si>
+    <t>M3-G053</t>
+  </si>
+  <si>
+    <t>M3-G054</t>
+  </si>
+  <si>
+    <t>M3-G055</t>
+  </si>
+  <si>
+    <t>M3-G056</t>
+  </si>
+  <si>
+    <t>M3-G057</t>
+  </si>
+  <si>
+    <t>M3-G058</t>
+  </si>
+  <si>
+    <t>M3-G059</t>
+  </si>
+  <si>
+    <t>M3-G060</t>
+  </si>
+  <si>
+    <t>M3-G061</t>
+  </si>
+  <si>
+    <t>M3-G062</t>
+  </si>
+  <si>
+    <t>M3-G063</t>
+  </si>
+  <si>
+    <t>M3-G064</t>
+  </si>
+  <si>
+    <t>M3-G065</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +259,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
     </font>
   </fonts>
   <fills count="8">
@@ -665,13 +717,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53:P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2544,14 +2596,14 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
+      <c r="A20" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2566,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -2578,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -2590,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -2602,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -2613,43 +2665,43 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="14">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2664,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -2676,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -2688,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -2700,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
@@ -2740,29 +2792,29 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="11" t="s">
-        <v>21</v>
+      <c r="A22" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -2774,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -2798,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -2838,54 +2890,54 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="10" t="s">
-        <v>22</v>
+      <c r="A23" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3">
+        <v>318</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>31</v>
+      </c>
+      <c r="M23" s="3">
+        <v>48</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -2896,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="U23" s="3">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -2937,70 +2989,70 @@
     </row>
     <row r="24" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>10</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>22</v>
-      </c>
-      <c r="M24" s="3">
-        <v>48</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="U24" s="3">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>106</v>
-      </c>
-      <c r="U24" s="3">
-        <v>39</v>
-      </c>
       <c r="V24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -3034,29 +3086,29 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
@@ -3068,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -3080,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -3092,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U25" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="3">
         <v>0</v>
@@ -3132,29 +3184,29 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -3166,19 +3218,19 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -3190,16 +3242,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="8">
         <v>0</v>
@@ -3230,74 +3282,74 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
+      <c r="A27" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B27" s="3">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>110</v>
+      </c>
+      <c r="F27" s="3">
+        <v>198</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3">
+        <v>48</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="P27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>106</v>
+      </c>
+      <c r="U27" s="3">
+        <v>39</v>
+      </c>
+      <c r="V27" s="3">
         <v>2</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
-        <v>6</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="W27" s="3">
         <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>10</v>
-      </c>
-      <c r="U27" s="3">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
       </c>
       <c r="X27" s="8">
         <v>0</v>
@@ -3328,71 +3380,71 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="11" t="s">
-        <v>27</v>
+      <c r="A28" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>6</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
         <v>10</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>22</v>
-      </c>
-      <c r="M28" s="3">
-        <v>48</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
+      <c r="U28" s="3">
         <v>5</v>
       </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>106</v>
-      </c>
-      <c r="U28" s="3">
-        <v>39</v>
-      </c>
       <c r="V28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="3">
         <v>0</v>
@@ -3426,29 +3478,29 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="10" t="s">
-        <v>28</v>
+      <c r="A29" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -3460,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -3472,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -3484,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -3525,28 +3577,28 @@
     </row>
     <row r="30" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -3558,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -3570,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -3582,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="U30" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -3622,8 +3674,8 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="11" t="s">
-        <v>30</v>
+      <c r="A31" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>15</v>
@@ -3638,7 +3690,7 @@
         <v>80</v>
       </c>
       <c r="F31" s="3">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -3720,8 +3772,8 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="10" t="s">
-        <v>31</v>
+      <c r="A32" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>15</v>
@@ -3736,7 +3788,7 @@
         <v>80</v>
       </c>
       <c r="F32" s="3">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -3766,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -3784,7 +3836,7 @@
         <v>39</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -3819,13 +3871,13 @@
     </row>
     <row r="33" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -3834,7 +3886,7 @@
         <v>80</v>
       </c>
       <c r="F33" s="3">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -3855,7 +3907,7 @@
         <v>22</v>
       </c>
       <c r="M33" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -3917,13 +3969,13 @@
     </row>
     <row r="34" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>15</v>
       </c>
       <c r="C34" s="3">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -3932,7 +3984,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="3">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -3974,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U34" s="3">
         <v>39</v>
@@ -4015,28 +4067,28 @@
     </row>
     <row r="35" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -4048,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -4060,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -4072,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -4083,52 +4135,52 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="14">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>15</v>
       </c>
       <c r="C36" s="3">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F36" s="3">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -4149,7 +4201,7 @@
         <v>22</v>
       </c>
       <c r="M36" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -4170,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U36" s="3">
         <v>39</v>
@@ -4211,13 +4263,13 @@
     </row>
     <row r="37" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -4226,7 +4278,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="3">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -4244,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M37" s="3">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -4268,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U37" s="3">
         <v>39</v>
       </c>
       <c r="V37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
@@ -4309,28 +4361,28 @@
     </row>
     <row r="38" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -4342,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M38" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -4354,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -4366,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U38" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V38" s="3">
         <v>0</v>
@@ -4407,53 +4459,53 @@
     </row>
     <row r="39" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>86</v>
+      </c>
+      <c r="F39" s="3">
+        <v>414</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>20</v>
+      </c>
+      <c r="M39" s="3">
+        <v>68</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
         <v>6</v>
       </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>2</v>
-      </c>
-      <c r="M39" s="3">
-        <v>6</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>2</v>
-      </c>
       <c r="Q39" s="3">
         <v>0</v>
       </c>
@@ -4464,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="U39" s="3">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="V39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="3">
         <v>0</v>
@@ -4505,13 +4557,13 @@
     </row>
     <row r="40" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -4526,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -4538,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -4550,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -4562,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U40" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V40" s="3">
         <v>0</v>
@@ -4603,67 +4655,67 @@
     </row>
     <row r="41" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>6</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>10</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>20</v>
-      </c>
-      <c r="M41" s="3">
-        <v>68</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>104</v>
-      </c>
       <c r="U41" s="3">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -4701,7 +4753,7 @@
     </row>
     <row r="42" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -4798,23 +4850,23 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A43" s="9" t="s">
-        <v>42</v>
+      <c r="A43" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" s="3">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -4832,16 +4884,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M43" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>6</v>
@@ -4859,7 +4911,7 @@
         <v>104</v>
       </c>
       <c r="U43" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -4867,7 +4919,7 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="8">
         <v>0</v>
       </c>
       <c r="Y43" s="14">
@@ -4896,76 +4948,76 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A44" s="9" t="s">
-        <v>43</v>
+      <c r="A44" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2</v>
+      </c>
+      <c r="M44" s="3">
+        <v>6</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>10</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>22</v>
-      </c>
-      <c r="M44" s="3">
-        <v>66</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>104</v>
-      </c>
       <c r="U44" s="3">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="V44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="8">
         <v>0</v>
       </c>
       <c r="Y44" s="14">
@@ -4995,7 +5047,7 @@
     </row>
     <row r="45" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>21</v>
@@ -5010,7 +5062,7 @@
         <v>84</v>
       </c>
       <c r="F45" s="3">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -5034,10 +5086,10 @@
         <v>66</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" s="3">
         <v>6</v>
@@ -5055,10 +5107,10 @@
         <v>104</v>
       </c>
       <c r="U45" s="3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -5093,7 +5145,7 @@
     </row>
     <row r="46" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>21</v>
@@ -5108,7 +5160,7 @@
         <v>84</v>
       </c>
       <c r="F46" s="3">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -5149,14 +5201,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="3">
         <v>104</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="3">
         <v>39</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -5191,7 +5243,7 @@
     </row>
     <row r="47" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
         <v>21</v>
@@ -5206,7 +5258,7 @@
         <v>84</v>
       </c>
       <c r="F47" s="3">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -5224,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M47" s="3">
         <v>66</v>
@@ -5254,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="V47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -5289,7 +5341,7 @@
     </row>
     <row r="48" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>21</v>
@@ -5304,7 +5356,7 @@
         <v>84</v>
       </c>
       <c r="F48" s="3">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -5345,17 +5397,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="5">
         <v>104</v>
       </c>
-      <c r="U48" s="3">
-        <v>50</v>
+      <c r="U48" s="5">
+        <v>39</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -5387,13 +5439,13 @@
     </row>
     <row r="49" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A49" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3">
         <v>21</v>
       </c>
       <c r="C49" s="3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -5402,7 +5454,7 @@
         <v>84</v>
       </c>
       <c r="F49" s="3">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -5420,10 +5472,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M49" s="3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -5447,13 +5499,13 @@
         <v>104</v>
       </c>
       <c r="U49" s="3">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -5485,13 +5537,13 @@
     </row>
     <row r="50" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>21</v>
       </c>
       <c r="C50" s="3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -5500,7 +5552,7 @@
         <v>84</v>
       </c>
       <c r="F50" s="3">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -5518,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M50" s="3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N50" s="3">
         <v>0</v>
@@ -5530,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -5545,71 +5597,1626 @@
         <v>104</v>
       </c>
       <c r="U50" s="3">
+        <v>50</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>84</v>
+      </c>
+      <c r="F51" s="3">
+        <v>350</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>20</v>
+      </c>
+      <c r="M51" s="3">
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>104</v>
+      </c>
+      <c r="U51" s="3">
+        <v>50</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>21</v>
+      </c>
+      <c r="C52" s="3">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>84</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>20</v>
+      </c>
+      <c r="M52" s="3">
+        <v>46</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>104</v>
+      </c>
+      <c r="U52" s="3">
         <v>45</v>
       </c>
-      <c r="V50" s="3">
-        <v>0</v>
-      </c>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="14">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="12" customHeight="1" thickTop="1"/>
-    <row r="52" spans="1:32" ht="12" customHeight="1"/>
-    <row r="53" spans="1:32" ht="12" customHeight="1"/>
-    <row r="54" spans="1:32" ht="12" customHeight="1"/>
-    <row r="55" spans="1:32" ht="12" customHeight="1"/>
-    <row r="56" spans="1:32" ht="12" customHeight="1"/>
-    <row r="57" spans="1:32" ht="12" customHeight="1"/>
-    <row r="58" spans="1:32" ht="12" customHeight="1"/>
-    <row r="59" spans="1:32" ht="12" customHeight="1"/>
-    <row r="60" spans="1:32" ht="12" customHeight="1"/>
-    <row r="61" spans="1:32" ht="12" customHeight="1"/>
-    <row r="62" spans="1:32" ht="12" customHeight="1"/>
-    <row r="63" spans="1:32" ht="12" customHeight="1"/>
-    <row r="64" spans="1:32" ht="12" customHeight="1"/>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
+    <row r="53" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0</v>
+      </c>
+      <c r="P53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>0</v>
+      </c>
+      <c r="R53" s="14">
+        <v>0</v>
+      </c>
+      <c r="S53" s="14">
+        <v>0</v>
+      </c>
+      <c r="T53" s="14">
+        <v>0</v>
+      </c>
+      <c r="U53" s="14">
+        <v>0</v>
+      </c>
+      <c r="V53" s="14">
+        <v>0</v>
+      </c>
+      <c r="W53" s="14">
+        <v>0</v>
+      </c>
+      <c r="X53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>0</v>
+      </c>
+      <c r="R54" s="14">
+        <v>0</v>
+      </c>
+      <c r="S54" s="14">
+        <v>0</v>
+      </c>
+      <c r="T54" s="14">
+        <v>0</v>
+      </c>
+      <c r="U54" s="14">
+        <v>0</v>
+      </c>
+      <c r="V54" s="14">
+        <v>0</v>
+      </c>
+      <c r="W54" s="14">
+        <v>0</v>
+      </c>
+      <c r="X54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
+        <v>0</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0</v>
+      </c>
+      <c r="M55" s="14">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14">
+        <v>0</v>
+      </c>
+      <c r="O55" s="14">
+        <v>0</v>
+      </c>
+      <c r="P55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>0</v>
+      </c>
+      <c r="R55" s="14">
+        <v>0</v>
+      </c>
+      <c r="S55" s="14">
+        <v>0</v>
+      </c>
+      <c r="T55" s="14">
+        <v>0</v>
+      </c>
+      <c r="U55" s="14">
+        <v>0</v>
+      </c>
+      <c r="V55" s="14">
+        <v>0</v>
+      </c>
+      <c r="W55" s="14">
+        <v>0</v>
+      </c>
+      <c r="X55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="K56" s="14">
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
+      </c>
+      <c r="M56" s="14">
+        <v>0</v>
+      </c>
+      <c r="N56" s="14">
+        <v>0</v>
+      </c>
+      <c r="O56" s="14">
+        <v>0</v>
+      </c>
+      <c r="P56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>0</v>
+      </c>
+      <c r="R56" s="14">
+        <v>0</v>
+      </c>
+      <c r="S56" s="14">
+        <v>0</v>
+      </c>
+      <c r="T56" s="14">
+        <v>0</v>
+      </c>
+      <c r="U56" s="14">
+        <v>0</v>
+      </c>
+      <c r="V56" s="14">
+        <v>0</v>
+      </c>
+      <c r="W56" s="14">
+        <v>0</v>
+      </c>
+      <c r="X56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14">
+        <v>0</v>
+      </c>
+      <c r="M57" s="14">
+        <v>0</v>
+      </c>
+      <c r="N57" s="14">
+        <v>0</v>
+      </c>
+      <c r="O57" s="14">
+        <v>0</v>
+      </c>
+      <c r="P57" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>0</v>
+      </c>
+      <c r="R57" s="14">
+        <v>0</v>
+      </c>
+      <c r="S57" s="14">
+        <v>0</v>
+      </c>
+      <c r="T57" s="14">
+        <v>0</v>
+      </c>
+      <c r="U57" s="14">
+        <v>0</v>
+      </c>
+      <c r="V57" s="14">
+        <v>0</v>
+      </c>
+      <c r="W57" s="14">
+        <v>0</v>
+      </c>
+      <c r="X57" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <v>0</v>
+      </c>
+      <c r="K58" s="14">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14">
+        <v>0</v>
+      </c>
+      <c r="M58" s="14">
+        <v>0</v>
+      </c>
+      <c r="N58" s="14">
+        <v>0</v>
+      </c>
+      <c r="O58" s="14">
+        <v>0</v>
+      </c>
+      <c r="P58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>0</v>
+      </c>
+      <c r="R58" s="14">
+        <v>0</v>
+      </c>
+      <c r="S58" s="14">
+        <v>0</v>
+      </c>
+      <c r="T58" s="14">
+        <v>0</v>
+      </c>
+      <c r="U58" s="14">
+        <v>0</v>
+      </c>
+      <c r="V58" s="14">
+        <v>0</v>
+      </c>
+      <c r="W58" s="14">
+        <v>0</v>
+      </c>
+      <c r="X58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
+        <v>0</v>
+      </c>
+      <c r="L59" s="14">
+        <v>0</v>
+      </c>
+      <c r="M59" s="14">
+        <v>0</v>
+      </c>
+      <c r="N59" s="14">
+        <v>0</v>
+      </c>
+      <c r="O59" s="14">
+        <v>0</v>
+      </c>
+      <c r="P59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>0</v>
+      </c>
+      <c r="R59" s="14">
+        <v>0</v>
+      </c>
+      <c r="S59" s="14">
+        <v>0</v>
+      </c>
+      <c r="T59" s="14">
+        <v>0</v>
+      </c>
+      <c r="U59" s="14">
+        <v>0</v>
+      </c>
+      <c r="V59" s="14">
+        <v>0</v>
+      </c>
+      <c r="W59" s="14">
+        <v>0</v>
+      </c>
+      <c r="X59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14">
+        <v>0</v>
+      </c>
+      <c r="L60" s="14">
+        <v>0</v>
+      </c>
+      <c r="M60" s="14">
+        <v>0</v>
+      </c>
+      <c r="N60" s="14">
+        <v>0</v>
+      </c>
+      <c r="O60" s="14">
+        <v>0</v>
+      </c>
+      <c r="P60" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>0</v>
+      </c>
+      <c r="R60" s="14">
+        <v>0</v>
+      </c>
+      <c r="S60" s="14">
+        <v>0</v>
+      </c>
+      <c r="T60" s="14">
+        <v>0</v>
+      </c>
+      <c r="U60" s="14">
+        <v>0</v>
+      </c>
+      <c r="V60" s="14">
+        <v>0</v>
+      </c>
+      <c r="W60" s="14">
+        <v>0</v>
+      </c>
+      <c r="X60" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="14">
+        <v>0</v>
+      </c>
+      <c r="L61" s="14">
+        <v>0</v>
+      </c>
+      <c r="M61" s="14">
+        <v>0</v>
+      </c>
+      <c r="N61" s="14">
+        <v>0</v>
+      </c>
+      <c r="O61" s="14">
+        <v>0</v>
+      </c>
+      <c r="P61" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>0</v>
+      </c>
+      <c r="R61" s="14">
+        <v>0</v>
+      </c>
+      <c r="S61" s="14">
+        <v>0</v>
+      </c>
+      <c r="T61" s="14">
+        <v>0</v>
+      </c>
+      <c r="U61" s="14">
+        <v>0</v>
+      </c>
+      <c r="V61" s="14">
+        <v>0</v>
+      </c>
+      <c r="W61" s="14">
+        <v>0</v>
+      </c>
+      <c r="X61" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14">
+        <v>0</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>0</v>
+      </c>
+      <c r="I62" s="14">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
+        <v>0</v>
+      </c>
+      <c r="K62" s="14">
+        <v>0</v>
+      </c>
+      <c r="L62" s="14">
+        <v>0</v>
+      </c>
+      <c r="M62" s="14">
+        <v>0</v>
+      </c>
+      <c r="N62" s="14">
+        <v>0</v>
+      </c>
+      <c r="O62" s="14">
+        <v>0</v>
+      </c>
+      <c r="P62" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>0</v>
+      </c>
+      <c r="R62" s="14">
+        <v>0</v>
+      </c>
+      <c r="S62" s="14">
+        <v>0</v>
+      </c>
+      <c r="T62" s="14">
+        <v>0</v>
+      </c>
+      <c r="U62" s="14">
+        <v>0</v>
+      </c>
+      <c r="V62" s="14">
+        <v>0</v>
+      </c>
+      <c r="W62" s="14">
+        <v>0</v>
+      </c>
+      <c r="X62" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="14">
+        <v>0</v>
+      </c>
+      <c r="L63" s="14">
+        <v>0</v>
+      </c>
+      <c r="M63" s="14">
+        <v>0</v>
+      </c>
+      <c r="N63" s="14">
+        <v>0</v>
+      </c>
+      <c r="O63" s="14">
+        <v>0</v>
+      </c>
+      <c r="P63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>0</v>
+      </c>
+      <c r="R63" s="14">
+        <v>0</v>
+      </c>
+      <c r="S63" s="14">
+        <v>0</v>
+      </c>
+      <c r="T63" s="14">
+        <v>0</v>
+      </c>
+      <c r="U63" s="14">
+        <v>0</v>
+      </c>
+      <c r="V63" s="14">
+        <v>0</v>
+      </c>
+      <c r="W63" s="14">
+        <v>0</v>
+      </c>
+      <c r="X63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
+        <v>0</v>
+      </c>
+      <c r="L64" s="14">
+        <v>0</v>
+      </c>
+      <c r="M64" s="14">
+        <v>0</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14">
+        <v>0</v>
+      </c>
+      <c r="P64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>0</v>
+      </c>
+      <c r="R64" s="14">
+        <v>0</v>
+      </c>
+      <c r="S64" s="14">
+        <v>0</v>
+      </c>
+      <c r="T64" s="14">
+        <v>0</v>
+      </c>
+      <c r="U64" s="14">
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <v>0</v>
+      </c>
+      <c r="W64" s="14">
+        <v>0</v>
+      </c>
+      <c r="X64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14">
+        <v>0</v>
+      </c>
+      <c r="L65" s="14">
+        <v>0</v>
+      </c>
+      <c r="M65" s="14">
+        <v>0</v>
+      </c>
+      <c r="N65" s="14">
+        <v>0</v>
+      </c>
+      <c r="O65" s="14">
+        <v>0</v>
+      </c>
+      <c r="P65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>0</v>
+      </c>
+      <c r="R65" s="14">
+        <v>0</v>
+      </c>
+      <c r="S65" s="14">
+        <v>0</v>
+      </c>
+      <c r="T65" s="14">
+        <v>0</v>
+      </c>
+      <c r="U65" s="14">
+        <v>0</v>
+      </c>
+      <c r="V65" s="14">
+        <v>0</v>
+      </c>
+      <c r="W65" s="14">
+        <v>0</v>
+      </c>
+      <c r="X65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="14">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>0</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
+        <v>0</v>
+      </c>
+      <c r="I66" s="14">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14">
+        <v>0</v>
+      </c>
+      <c r="L66" s="14">
+        <v>0</v>
+      </c>
+      <c r="M66" s="14">
+        <v>0</v>
+      </c>
+      <c r="N66" s="14">
+        <v>0</v>
+      </c>
+      <c r="O66" s="14">
+        <v>0</v>
+      </c>
+      <c r="P66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="14">
+        <v>0</v>
+      </c>
+      <c r="R66" s="14">
+        <v>0</v>
+      </c>
+      <c r="S66" s="14">
+        <v>0</v>
+      </c>
+      <c r="T66" s="14">
+        <v>0</v>
+      </c>
+      <c r="U66" s="14">
+        <v>0</v>
+      </c>
+      <c r="V66" s="14">
+        <v>0</v>
+      </c>
+      <c r="W66" s="14">
+        <v>0</v>
+      </c>
+      <c r="X66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="12" customHeight="1" thickTop="1"/>
+    <row r="68" spans="1:32" ht="12" customHeight="1"/>
+    <row r="69" spans="1:32" ht="12" customHeight="1"/>
+    <row r="70" spans="1:32" ht="12" customHeight="1"/>
+    <row r="71" spans="1:32" ht="12" customHeight="1"/>
+    <row r="72" spans="1:32" ht="12" customHeight="1"/>
+    <row r="73" spans="1:32" ht="12" customHeight="1"/>
+    <row r="74" spans="1:32" ht="12" customHeight="1"/>
+    <row r="75" spans="1:32" ht="12" customHeight="1"/>
+    <row r="76" spans="1:32" ht="12" customHeight="1"/>
+    <row r="77" spans="1:32" ht="12" customHeight="1"/>
+    <row r="78" spans="1:32" ht="12" customHeight="1"/>
+    <row r="79" spans="1:32" ht="12" customHeight="1"/>
+    <row r="80" spans="1:32" ht="12" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
